--- a/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationrequest.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -8394,7 +8394,7 @@
         <v>293</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>286</v>
